--- a/Result.xlsx
+++ b/Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hufs365-my.sharepoint.com/personal/leedongeen_o365_hufs_ac_kr/Documents/바탕 화면/2023-1/컴퓨터비전/팀플/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DI_king\Desktop\바탕 화면\컴비팀플\뉴\HUFS_CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC8D961-5814-46A9-8D1D-2F81FE98C0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C9FE2D-71B6-4D95-9D11-A8AD2B598D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{B26F6469-752F-4176-9B15-1D7E5E9D864B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{B26F6469-752F-4176-9B15-1D7E5E9D864B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>L2+Cosine_0.6+RegL1</t>
   </si>
   <si>
-    <t>53.309708</t>
-  </si>
-  <si>
     <t>L2+Cosine_0.6+RegL2</t>
   </si>
   <si>
@@ -132,6 +129,10 @@
   </si>
   <si>
     <t>52.36342</t>
+  </si>
+  <si>
+    <t>44.977093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -501,16 +502,16 @@
   <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.9140625" customWidth="1"/>
+    <col min="2" max="2" width="36.92578125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -518,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -534,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -542,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -550,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -558,7 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -566,7 +567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -574,7 +575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -582,7 +583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -590,7 +591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -598,44 +599,44 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
